--- a/hz-back/src/main/resources/excel/贷后跟踪-小微部个人类.xlsx
+++ b/hz-back/src/main/resources/excel/贷后跟踪-小微部个人类.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
-    <sheet name="现场检查表" sheetId="2" r:id="rId1"/>
+    <sheet name="贷后检查表" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>惠州农商银行小微企业金融部现场检查表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$借款人全称$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +348,10 @@
   </si>
   <si>
     <t>$简要评价$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠州农商银行贷后检查表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,6 +601,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -628,48 +697,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -678,33 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,19 +1004,19 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="8" style="7" customWidth="1"/>
-    <col min="4" max="4" width="2.69921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="3.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" customWidth="1"/>
-    <col min="7" max="7" width="24.69921875" customWidth="1"/>
-    <col min="8" max="8" width="4.19921875" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1025,263 +1025,263 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="44"/>
+      <c r="G4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="44"/>
+      <c r="G5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="44"/>
+      <c r="G6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="44"/>
+      <c r="G7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="36">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="40"/>
+      <c r="G8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="19"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="36">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39" t="s">
+      <c r="B9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="44.25" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="B13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
+      <c r="B14" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="33"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="33"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="33"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="37.5" customHeight="1">
       <c r="A19" s="33"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" s="8" customFormat="1">
@@ -1301,199 +1301,199 @@
       <c r="A21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="B21" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="33"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="33"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="33"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="33"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="33"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="33"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1">
       <c r="A29" s="33"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="33"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="33"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="33"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" ht="45" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:9" ht="43.5" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -1557,6 +1557,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:H19"/>
+    <mergeCell ref="B21:H25"/>
+    <mergeCell ref="B26:H32"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:H41"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A10:G10"/>
@@ -1565,28 +1586,7 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A37:H41"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:A25"/>
     <mergeCell ref="B11:H12"/>
-    <mergeCell ref="B14:H19"/>
-    <mergeCell ref="B21:H25"/>
-    <mergeCell ref="B26:H32"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
